--- a/data/trans_orig/PCS12_SP_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>112278</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94460</v>
+        <v>93045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134012</v>
+        <v>132728</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1922099664627765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1617073622826159</v>
+        <v>0.1592854214831839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2294167030750635</v>
+        <v>0.2272188087442159</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -765,19 +765,19 @@
         <v>141678</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120642</v>
+        <v>119524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164858</v>
+        <v>164573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1536087578123775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1308012964614245</v>
+        <v>0.129588478982794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1787403908177439</v>
+        <v>0.1784310520237667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -786,19 +786,19 @@
         <v>253956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>227707</v>
+        <v>225164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284848</v>
+        <v>283396</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1685765277504083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1511520007195297</v>
+        <v>0.1494639511284498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.189082545571063</v>
+        <v>0.1881184866696333</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>140391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120550</v>
+        <v>120401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161337</v>
+        <v>160134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2403368749702336</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2063715631792423</v>
+        <v>0.2061159721994589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2761956670999666</v>
+        <v>0.2741355463763802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>118</v>
@@ -836,19 +836,19 @@
         <v>123353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104500</v>
+        <v>104175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145132</v>
+        <v>148651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.133740224122067</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1132998724991639</v>
+        <v>0.1129467534024531</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1573532768809295</v>
+        <v>0.1611686967039679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -857,19 +857,19 @@
         <v>263744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234170</v>
+        <v>235084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297083</v>
+        <v>291517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1750734932564639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1554422980167826</v>
+        <v>0.1560490760590668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1972039502631786</v>
+        <v>0.1935092900330217</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>171131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>151018</v>
+        <v>150764</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>192744</v>
+        <v>196787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2929619168416039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2585297868454849</v>
+        <v>0.2580951330696812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3299606556323422</v>
+        <v>0.3368826523561453</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>279</v>
@@ -907,19 +907,19 @@
         <v>293111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>263579</v>
+        <v>266431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>319857</v>
+        <v>325531</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3177932805039104</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2857742660020154</v>
+        <v>0.2888662587987397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3467913845527575</v>
+        <v>0.3529430362715474</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>446</v>
@@ -928,19 +928,19 @@
         <v>464242</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>429650</v>
+        <v>429505</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>500048</v>
+        <v>503328</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.308164821926069</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2852024214468902</v>
+        <v>0.2851063715185354</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3319324507509566</v>
+        <v>0.334110001687921</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>160342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138400</v>
+        <v>138213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>182862</v>
+        <v>182497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.274491241725386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2369295561420458</v>
+        <v>0.2366085348986139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3130434522876182</v>
+        <v>0.312419562245172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>351</v>
@@ -978,19 +978,19 @@
         <v>364190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331957</v>
+        <v>334991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>392039</v>
+        <v>394448</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.394857737561645</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3599097444302143</v>
+        <v>0.3631991160633063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4250517806331246</v>
+        <v>0.4276637330229397</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>515</v>
@@ -999,19 +999,19 @@
         <v>524532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486935</v>
+        <v>487125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>565543</v>
+        <v>561642</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3481851570670588</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3232282210604945</v>
+        <v>0.3233541038883043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3754085473311025</v>
+        <v>0.3728189910250505</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>273463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>245954</v>
+        <v>245929</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>304040</v>
+        <v>302264</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2537016567010761</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2281801920034855</v>
+        <v>0.2281567485847288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.282068419871082</v>
+        <v>0.2804208905855124</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>231</v>
@@ -1124,19 +1124,19 @@
         <v>236266</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>206346</v>
+        <v>212226</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>262357</v>
+        <v>264734</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2234115091432484</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.195119477375513</v>
+        <v>0.2006791998700985</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2480823741349018</v>
+        <v>0.2503304327470458</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>496</v>
@@ -1145,19 +1145,19 @@
         <v>509730</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>473305</v>
+        <v>470848</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>552984</v>
+        <v>550309</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2387009535049666</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2216436805355766</v>
+        <v>0.2204930969763454</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.258956298970506</v>
+        <v>0.2577037597352635</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>335888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>305953</v>
+        <v>309582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366611</v>
+        <v>366084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3116146029078535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2838429537693593</v>
+        <v>0.2872103542710876</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3401180012174774</v>
+        <v>0.3396286540148272</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -1195,19 +1195,19 @@
         <v>247761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221018</v>
+        <v>219753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275995</v>
+        <v>276343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2342805065488417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2089932738851174</v>
+        <v>0.2077965184300716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2609792122296921</v>
+        <v>0.2613082621542975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>568</v>
@@ -1216,19 +1216,19 @@
         <v>583648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543652</v>
+        <v>542554</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>624872</v>
+        <v>625012</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2733161487915058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2545864853882574</v>
+        <v>0.2540720495907505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2926208452698247</v>
+        <v>0.2926863309089109</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>297163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266926</v>
+        <v>268285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>328394</v>
+        <v>325318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.275688258902047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2476368754244196</v>
+        <v>0.2488969590949166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3046624696149576</v>
+        <v>0.3018089709108785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>307</v>
@@ -1266,19 +1266,19 @@
         <v>315803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289773</v>
+        <v>283662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347229</v>
+        <v>343111</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2986210679699368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2740072539161912</v>
+        <v>0.2682285341695718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3283371216189364</v>
+        <v>0.3244427415277868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>594</v>
@@ -1287,19 +1287,19 @@
         <v>612966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>570878</v>
+        <v>570817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655735</v>
+        <v>654595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2870453598083304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2673358435281159</v>
+        <v>0.267307491179154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3070735403998887</v>
+        <v>0.3065396617819986</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>171380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148990</v>
+        <v>151008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>195339</v>
+        <v>196919</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1589954814890234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1382235936635667</v>
+        <v>0.1400957611939529</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1812227578254852</v>
+        <v>0.1826889630257691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>249</v>
@@ -1337,19 +1337,19 @@
         <v>257708</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>229992</v>
+        <v>233011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>285588</v>
+        <v>288625</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2436869163379731</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2174783133226462</v>
+        <v>0.2203334859731748</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2700501356412601</v>
+        <v>0.2729219687273274</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>425</v>
@@ -1358,19 +1358,19 @@
         <v>429088</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>394117</v>
+        <v>395075</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>463490</v>
+        <v>465022</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2009375378951972</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1845605760689383</v>
+        <v>0.185009220642887</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2170476270181267</v>
+        <v>0.2177650447154892</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>265969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237592</v>
+        <v>238622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>293996</v>
+        <v>298977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2371349687258195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2118341740920053</v>
+        <v>0.2127522411060563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2621230190535701</v>
+        <v>0.2665639671703699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -1483,19 +1483,19 @@
         <v>182965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158206</v>
+        <v>158940</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207353</v>
+        <v>209404</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1840801827499354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1591702406108486</v>
+        <v>0.1599094500977793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2086172720425502</v>
+        <v>0.2106811186075615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>432</v>
@@ -1504,19 +1504,19 @@
         <v>448934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>410402</v>
+        <v>410590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>486838</v>
+        <v>488171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2122082807202596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.193994461589668</v>
+        <v>0.1940833862713811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2301254374504614</v>
+        <v>0.2307556781873295</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>424179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>392164</v>
+        <v>391219</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>456969</v>
+        <v>455965</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.378193210074733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3496490154323029</v>
+        <v>0.3488058633939761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4074283577136372</v>
+        <v>0.4065328550570385</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>306</v>
@@ -1554,19 +1554,19 @@
         <v>303394</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>275294</v>
+        <v>275525</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>332380</v>
+        <v>331324</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3052435359612302</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2769725906874752</v>
+        <v>0.2772051633696508</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3344062070358607</v>
+        <v>0.3333442283772198</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>724</v>
@@ -1575,19 +1575,19 @@
         <v>727573</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>680187</v>
+        <v>684692</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>770971</v>
+        <v>770763</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3439193225585134</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.321520365346449</v>
+        <v>0.3236497891597721</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3644331518331217</v>
+        <v>0.3643348851051565</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>298962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>273148</v>
+        <v>269497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>332572</v>
+        <v>329042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2665506382945054</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2435358200169435</v>
+        <v>0.2402803330070823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2965176622073346</v>
+        <v>0.2933702562021358</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>284</v>
@@ -1625,19 +1625,19 @@
         <v>287764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>258133</v>
+        <v>256666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316823</v>
+        <v>314636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2895181406419842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.259706958748301</v>
+        <v>0.2582313445394265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3187551125033748</v>
+        <v>0.3165541309524041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -1646,19 +1646,19 @@
         <v>586725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>542471</v>
+        <v>543414</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>623882</v>
+        <v>626040</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2773414417018135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2564229491781754</v>
+        <v>0.2568686233718038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2949052601210282</v>
+        <v>0.2959253215011569</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>132484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112880</v>
+        <v>110903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154838</v>
+        <v>154176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1181211829049421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1006424506413012</v>
+        <v>0.09887992115298433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1380516270224237</v>
+        <v>0.1374610673058385</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1696,19 +1696,19 @@
         <v>219818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193535</v>
+        <v>195728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>247153</v>
+        <v>246080</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2211581406468501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1947151553234142</v>
+        <v>0.1969217278604364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2486594291740923</v>
+        <v>0.247580631940303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>347</v>
@@ -1717,19 +1717,19 @@
         <v>352302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319445</v>
+        <v>320929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>385234</v>
+        <v>388873</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1665309550194136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1509994915909983</v>
+        <v>0.1517010616571179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1820978471257595</v>
+        <v>0.1838179824507345</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>144175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>124342</v>
+        <v>121285</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164564</v>
+        <v>163512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3223952630758476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.278046392595768</v>
+        <v>0.2712095222179622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3679875039341151</v>
+        <v>0.3656350168183446</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -1842,19 +1842,19 @@
         <v>100758</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84969</v>
+        <v>84322</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118836</v>
+        <v>116956</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2953400690612085</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2490615638321331</v>
+        <v>0.2471646613677245</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3483323440582385</v>
+        <v>0.3428207387566392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>238</v>
@@ -1863,19 +1863,19 @@
         <v>244933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219427</v>
+        <v>218962</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273203</v>
+        <v>272349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3106872544479387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2783335939977315</v>
+        <v>0.2777449389080186</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3465471297160188</v>
+        <v>0.3454636168264085</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>155553</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136926</v>
+        <v>135935</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176721</v>
+        <v>177444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3478368179888747</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3061862492963286</v>
+        <v>0.3039692385051922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3951729453549888</v>
+        <v>0.396789350349075</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1913,19 +1913,19 @@
         <v>81489</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67025</v>
+        <v>67559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96830</v>
+        <v>99197</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2388587630735491</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1964631964954128</v>
+        <v>0.1980271619737224</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2838266111800377</v>
+        <v>0.2907661236982024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -1934,19 +1934,19 @@
         <v>237041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>210851</v>
+        <v>212415</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>262392</v>
+        <v>264343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3006770745950186</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2674561563132234</v>
+        <v>0.2694399348541556</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3328334200969923</v>
+        <v>0.335308551050199</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>106834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>89459</v>
+        <v>89123</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>127362</v>
+        <v>126793</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2388951864005635</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2000424838261596</v>
+        <v>0.1992908656009499</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2847994833662126</v>
+        <v>0.283526496776514</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>104</v>
@@ -1984,19 +1984,19 @@
         <v>104816</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>87806</v>
+        <v>88876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>120472</v>
+        <v>121535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3072367115674793</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2573770662483263</v>
+        <v>0.260512541220987</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3531261372383538</v>
+        <v>0.3562416713461302</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>207</v>
@@ -2005,19 +2005,19 @@
         <v>211650</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>188248</v>
+        <v>186776</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>240230</v>
+        <v>235996</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2684696616701093</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2387855106998815</v>
+        <v>0.2369176138324032</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3047214208797986</v>
+        <v>0.2993516514794315</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>40638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30074</v>
+        <v>29477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54151</v>
+        <v>53878</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09087273253471422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06724932817289102</v>
+        <v>0.06591499085186917</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.121088784487287</v>
+        <v>0.1204783439669719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2055,19 +2055,19 @@
         <v>54096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40717</v>
+        <v>41611</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68212</v>
+        <v>70392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1585644562977631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1193487951939376</v>
+        <v>0.1219697280121166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1999438742103315</v>
+        <v>0.2063314920052932</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2076,19 +2076,19 @@
         <v>94734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78151</v>
+        <v>77381</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114300</v>
+        <v>113292</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1201660092869334</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09913147651280158</v>
+        <v>0.09815496690313012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1449843075729779</v>
+        <v>0.1437068729534253</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>795885</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>751967</v>
+        <v>747650</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>850536</v>
+        <v>850583</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2463409475457849</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2327474960391452</v>
+        <v>0.2314112875479255</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2632562724154092</v>
+        <v>0.2632708971282176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>648</v>
@@ -2201,19 +2201,19 @@
         <v>661667</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>614675</v>
+        <v>617530</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>702929</v>
+        <v>710900</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1995997173304081</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1854239297746696</v>
+        <v>0.1862852853002746</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2120468213022356</v>
+        <v>0.214451561980628</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1409</v>
@@ -2222,19 +2222,19 @@
         <v>1457552</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1388670</v>
+        <v>1397576</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1519298</v>
+        <v>1529821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2226699271353751</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2121467968913262</v>
+        <v>0.2135073816415663</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2321027878183907</v>
+        <v>0.2337104591585603</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1056010</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1004590</v>
+        <v>999152</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1109989</v>
+        <v>1107214</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3268541830129433</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3109388924005548</v>
+        <v>0.3092557220596555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3435617458264673</v>
+        <v>0.3427027027006919</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>747</v>
@@ -2272,19 +2272,19 @@
         <v>755996</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>708627</v>
+        <v>706518</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>806980</v>
+        <v>804705</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2280551841353458</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2137658564627868</v>
+        <v>0.2131296668785091</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2434351421437718</v>
+        <v>0.2427487565237577</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1783</v>
@@ -2293,19 +2293,19 @@
         <v>1812006</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1741137</v>
+        <v>1738853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1884658</v>
+        <v>1890699</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2768197036425159</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2659931505710356</v>
+        <v>0.265644184460643</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.287918692820653</v>
+        <v>0.2888416090195738</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>874089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>821871</v>
+        <v>828732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>921491</v>
+        <v>924839</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2705464544874734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2543840107615233</v>
+        <v>0.2565076287812458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2852180668879335</v>
+        <v>0.2862544960620335</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>974</v>
@@ -2343,19 +2343,19 @@
         <v>1001494</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>951397</v>
+        <v>947905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1057469</v>
+        <v>1052854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3021127153769596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2870003377714889</v>
+        <v>0.2859469946259272</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3189981686111527</v>
+        <v>0.3176061069145779</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1829</v>
@@ -2364,19 +2364,19 @@
         <v>1875584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1799986</v>
+        <v>1797879</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1948316</v>
+        <v>1947275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2865324608966401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2749833913801311</v>
+        <v>0.2746615964154108</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.297643778424341</v>
+        <v>0.297484798116692</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>504844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>461083</v>
+        <v>464925</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>543096</v>
+        <v>545057</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1562584149537984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1427134117051394</v>
+        <v>0.1439027297622674</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1680979243325118</v>
+        <v>0.1687051234991169</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>865</v>
@@ -2414,19 +2414,19 @@
         <v>895812</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>841296</v>
+        <v>842905</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>946103</v>
+        <v>946772</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2702323831572865</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2537869442220054</v>
+        <v>0.2542723476281635</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2854032494784919</v>
+        <v>0.2856050397619712</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1381</v>
@@ -2435,19 +2435,19 @@
         <v>1400656</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1338624</v>
+        <v>1334441</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1470308</v>
+        <v>1472622</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.213977908325469</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.204501344720961</v>
+        <v>0.2038623030456116</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2246186643919427</v>
+        <v>0.2249720858787166</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>291384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>264614</v>
+        <v>261052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>324443</v>
+        <v>322713</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.279120510482848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2534771327810381</v>
+        <v>0.2500655224399954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3107881030559677</v>
+        <v>0.3091311392687958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>221</v>
@@ -2800,19 +2800,19 @@
         <v>238930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>211062</v>
+        <v>212287</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267262</v>
+        <v>267907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2133439462567037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1884601012884753</v>
+        <v>0.1895544223431422</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2386417750893784</v>
+        <v>0.2392177290864585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>497</v>
@@ -2821,19 +2821,19 @@
         <v>530314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>487517</v>
+        <v>488186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>574264</v>
+        <v>569561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2450772118894214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2252992285778028</v>
+        <v>0.2256087092410262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2653881502466994</v>
+        <v>0.263215070811513</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>262577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235279</v>
+        <v>233819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294255</v>
+        <v>289864</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2515263475363711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.225376828585882</v>
+        <v>0.2239789190276997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2818705896304292</v>
+        <v>0.2776648225510276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -2871,19 +2871,19 @@
         <v>218020</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>190234</v>
+        <v>191348</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247283</v>
+        <v>245920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1946735004321549</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1698631459740671</v>
+        <v>0.1708573592860293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2208028180628537</v>
+        <v>0.2195852903712775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -2892,19 +2892,19 @@
         <v>480597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442878</v>
+        <v>444175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524360</v>
+        <v>522863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2221016052649288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2046700542166943</v>
+        <v>0.2052694179686441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2423257135127068</v>
+        <v>0.2416340328033932</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>296377</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>265185</v>
+        <v>268175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>328349</v>
+        <v>327925</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2839037068978666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.254024687428737</v>
+        <v>0.2568889006914392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3145304875645731</v>
+        <v>0.3141239945429941</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>267</v>
@@ -2942,19 +2942,19 @@
         <v>294831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>264603</v>
+        <v>263580</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>325792</v>
+        <v>324805</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2632587091637191</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2362676647656101</v>
+        <v>0.2353546512182291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2909045032934048</v>
+        <v>0.2900231322249916</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>539</v>
@@ -2963,19 +2963,19 @@
         <v>591208</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>549137</v>
+        <v>549958</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>635783</v>
+        <v>635344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2732186881439553</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2537761139284858</v>
+        <v>0.2541556553156987</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2938184990708169</v>
+        <v>0.2936156991162704</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>193597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>170497</v>
+        <v>167598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223055</v>
+        <v>220423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1854494350829143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1633210025541512</v>
+        <v>0.1605447220147368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2136674070608813</v>
+        <v>0.2111463621518855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -3013,19 +3013,19 @@
         <v>368147</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337281</v>
+        <v>338451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>401507</v>
+        <v>401094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3287238441474222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3011634817915934</v>
+        <v>0.3022075379957062</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.358511779756144</v>
+        <v>0.3581427962458032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>521</v>
@@ -3034,19 +3034,19 @@
         <v>561744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>518763</v>
+        <v>520261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>601335</v>
+        <v>606770</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2596024947016944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2397393538073616</v>
+        <v>0.2404317188792519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2778987437052693</v>
+        <v>0.2804104977536835</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>293908</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>263809</v>
+        <v>261472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>325490</v>
+        <v>324099</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3008048116635998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2699996957960805</v>
+        <v>0.2676070189451764</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3331275680572835</v>
+        <v>0.3317041543725357</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>232</v>
@@ -3159,19 +3159,19 @@
         <v>244545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>212925</v>
+        <v>215865</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>272583</v>
+        <v>270964</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2234798262185677</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1945836000062992</v>
+        <v>0.1972702111492528</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.24910190193943</v>
+        <v>0.2476228007507083</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>515</v>
@@ -3180,19 +3180,19 @@
         <v>538454</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>496208</v>
+        <v>495527</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>582688</v>
+        <v>577457</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2599549212709901</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2395596529801399</v>
+        <v>0.239230861263045</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2813103041663739</v>
+        <v>0.2787849382356383</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>264950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>235688</v>
+        <v>236464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>290990</v>
+        <v>291824</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.27116752910798</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2412179429774967</v>
+        <v>0.2420126015315602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2978175665091404</v>
+        <v>0.2986714975123654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>235</v>
@@ -3230,19 +3230,19 @@
         <v>252184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>227299</v>
+        <v>225806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>281955</v>
+        <v>284796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2304602545137206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2077187837958505</v>
+        <v>0.2063550519403286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2576672223275516</v>
+        <v>0.2602631758402306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>488</v>
@@ -3251,19 +3251,19 @@
         <v>517134</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>474063</v>
+        <v>473726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>559564</v>
+        <v>556819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2496623494330422</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2288684019658826</v>
+        <v>0.2287055678704552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2701466461355009</v>
+        <v>0.2688214872233144</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>245265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216959</v>
+        <v>218891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274717</v>
+        <v>273987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2510197287084453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2220495571146694</v>
+        <v>0.2240273912463691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2811634501368526</v>
+        <v>0.2804160745521971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -3301,19 +3301,19 @@
         <v>263167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235309</v>
+        <v>234687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>291955</v>
+        <v>296343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.240496805750517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2150392492889985</v>
+        <v>0.2144702556712479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.266804986326759</v>
+        <v>0.2708156158973231</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>473</v>
@@ -3322,19 +3322,19 @@
         <v>508431</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>469294</v>
+        <v>468499</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555771</v>
+        <v>550324</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2454605909088421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2265658221037066</v>
+        <v>0.2261819420311483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2683155428845667</v>
+        <v>0.2656855380326533</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>172950</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149618</v>
+        <v>148890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>198672</v>
+        <v>198442</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.177007930519975</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1531283481832636</v>
+        <v>0.1523832344843934</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.203333335017876</v>
+        <v>0.2030987590178867</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>311</v>
@@ -3372,19 +3372,19 @@
         <v>334366</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>305631</v>
+        <v>303633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>368434</v>
+        <v>366746</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3055631135171947</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2793033226329955</v>
+        <v>0.2774774627559952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3366966771003113</v>
+        <v>0.3351534301591786</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>468</v>
@@ -3393,19 +3393,19 @@
         <v>507316</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>465995</v>
+        <v>470050</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>551588</v>
+        <v>548421</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2449221383871255</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2249730709122611</v>
+        <v>0.2269310135730729</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2662959628713839</v>
+        <v>0.2647670962520777</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>237266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>212264</v>
+        <v>210668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266814</v>
+        <v>262998</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2680627580278788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2398152362479998</v>
+        <v>0.2380124846332579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3014453283972639</v>
+        <v>0.2971339745407069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -3518,19 +3518,19 @@
         <v>180528</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157834</v>
+        <v>159864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205775</v>
+        <v>207908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2061306658917994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1802177318903491</v>
+        <v>0.1825361034203628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2349581067462744</v>
+        <v>0.2373931393052713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>400</v>
@@ -3539,19 +3539,19 @@
         <v>417795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381833</v>
+        <v>380272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>454159</v>
+        <v>453479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2372605945746597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2168381149874536</v>
+        <v>0.2159516251057962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2579114730248931</v>
+        <v>0.2575253941902745</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>250457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>223087</v>
+        <v>223216</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>279142</v>
+        <v>277705</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2829656271099241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2520426079502759</v>
+        <v>0.2521889496494251</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3153742490024166</v>
+        <v>0.313750395970457</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>236</v>
@@ -3589,19 +3589,19 @@
         <v>254834</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>227079</v>
+        <v>228886</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>281497</v>
+        <v>286682</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2909739071515214</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2592831475297025</v>
+        <v>0.2613463270016684</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3214186361203122</v>
+        <v>0.3273382796047014</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>477</v>
@@ -3610,19 +3610,19 @@
         <v>505291</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>467019</v>
+        <v>468994</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>545675</v>
+        <v>542833</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2869485758899917</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2652144946081138</v>
+        <v>0.2663358717126103</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3098823819920443</v>
+        <v>0.3082680856982574</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>238351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>210467</v>
+        <v>213246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266018</v>
+        <v>268715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2692885286822085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.237784777597276</v>
+        <v>0.24092458867375</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3005457352019349</v>
+        <v>0.3035937704801731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>214</v>
@@ -3660,19 +3660,19 @@
         <v>224911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197539</v>
+        <v>198886</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251077</v>
+        <v>250708</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2568069872405262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2255538520260629</v>
+        <v>0.2270914439383928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2866846293334519</v>
+        <v>0.2862634055947547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>431</v>
@@ -3681,19 +3681,19 @@
         <v>463262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426489</v>
+        <v>426974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>503305</v>
+        <v>503492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2630807861956462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.242198171927089</v>
+        <v>0.2424732051902874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2858205809869206</v>
+        <v>0.2859269475135728</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>159040</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137022</v>
+        <v>135996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183199</v>
+        <v>183514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1796830861799887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1548066163669739</v>
+        <v>0.1536483343509125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2069776029685897</v>
+        <v>0.2073331093042919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>197</v>
@@ -3731,19 +3731,19 @@
         <v>215523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191191</v>
+        <v>190324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>242265</v>
+        <v>242871</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.246088439716153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2183056638740549</v>
+        <v>0.2173156665982583</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2766231177481003</v>
+        <v>0.2773146892822487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>343</v>
@@ -3752,19 +3752,19 @@
         <v>374563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339299</v>
+        <v>337667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>413044</v>
+        <v>408690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2127100433397024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1926838440413332</v>
+        <v>0.1917569977168722</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.234562748770228</v>
+        <v>0.2320900226982402</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>152560</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129866</v>
+        <v>131815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174410</v>
+        <v>176293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3032854127919207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2581707439423438</v>
+        <v>0.262045256278902</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3467235292946342</v>
+        <v>0.3504678957912342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -3877,19 +3877,19 @@
         <v>120283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102017</v>
+        <v>101599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139952</v>
+        <v>139124</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2656797080653562</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2253342516012576</v>
+        <v>0.2244114205109052</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3091252212821077</v>
+        <v>0.3072958019332555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>249</v>
@@ -3898,19 +3898,19 @@
         <v>272842</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>245057</v>
+        <v>243347</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>303892</v>
+        <v>300411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2854718697094347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2564010500624453</v>
+        <v>0.2546119489883711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3179593075604999</v>
+        <v>0.3143174371069696</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>139949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120262</v>
+        <v>119393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162740</v>
+        <v>162817</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2782167192236381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2390794551882964</v>
+        <v>0.2373505874743462</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3235230940439691</v>
+        <v>0.3236761215408444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -3948,19 +3948,19 @@
         <v>105591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89311</v>
+        <v>87090</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126705</v>
+        <v>124156</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2332276287161396</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1972693178553309</v>
+        <v>0.192363188180083</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2798646897093547</v>
+        <v>0.2742358616669481</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -3969,19 +3969,19 @@
         <v>245540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218043</v>
+        <v>219180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>278299</v>
+        <v>274274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2569057211231007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2281366397256022</v>
+        <v>0.229325511220998</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2911812034891564</v>
+        <v>0.2869701567827723</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>129038</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>107258</v>
+        <v>109807</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>150228</v>
+        <v>150625</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2565254672504155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2132271120389455</v>
+        <v>0.2182948549398786</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2986509071576585</v>
+        <v>0.2994405117872508</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -4019,19 +4019,19 @@
         <v>119058</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>99760</v>
+        <v>100555</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>140980</v>
+        <v>139652</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2629754328640873</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2203499902481761</v>
+        <v>0.2221053166415683</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.311394524664123</v>
+        <v>0.3084621284299548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>224</v>
@@ -4040,19 +4040,19 @@
         <v>248096</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>219203</v>
+        <v>221751</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>276634</v>
+        <v>277129</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2595807680664785</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2293494418965352</v>
+        <v>0.2320161251603931</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.289439773831296</v>
+        <v>0.2899575067477109</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>81476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65311</v>
+        <v>66257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100300</v>
+        <v>101176</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1619724007340257</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1298378128377558</v>
+        <v>0.1317177779695798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1993936589743997</v>
+        <v>0.2011367723524745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -4090,19 +4090,19 @@
         <v>107804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88138</v>
+        <v>88919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125837</v>
+        <v>126140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2381172303544168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946775874387347</v>
+        <v>0.1964040533557959</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2779486809459165</v>
+        <v>0.2786180983392374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -4111,19 +4111,19 @@
         <v>189280</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>164980</v>
+        <v>165241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213343</v>
+        <v>216483</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1980416411009862</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.172617260845054</v>
+        <v>0.1728902132875348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2232185068712026</v>
+        <v>0.2265035767884709</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>975118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>922839</v>
+        <v>919469</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1032611</v>
+        <v>1028999</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2860299405622466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2706951095386867</v>
+        <v>0.2697066242459571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3028944442086603</v>
+        <v>0.3018348610677085</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>741</v>
@@ -4236,19 +4236,19 @@
         <v>784287</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>735339</v>
+        <v>734001</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>835003</v>
+        <v>835890</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2213796345750569</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2075632601093818</v>
+        <v>0.2071854758350509</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.235695461962503</v>
+        <v>0.2359457868477009</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1661</v>
@@ -4257,19 +4257,19 @@
         <v>1759404</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1684825</v>
+        <v>1689501</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1837651</v>
+        <v>1831614</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2530836764151309</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2423556883850929</v>
+        <v>0.2430283886858587</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2643392627644487</v>
+        <v>0.2634708658997929</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>917934</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>866076</v>
+        <v>865614</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>969757</v>
+        <v>971568</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2692563360801011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2540448236871716</v>
+        <v>0.2539093850320099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2844574470129499</v>
+        <v>0.2849888560587283</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>766</v>
@@ -4307,19 +4307,19 @@
         <v>830629</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>782041</v>
+        <v>779438</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>887578</v>
+        <v>884851</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2344605382192692</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2207459230193347</v>
+        <v>0.2200110599931876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2505356158562178</v>
+        <v>0.2497657804970214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1646</v>
@@ -4328,19 +4328,19 @@
         <v>1748562</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1681878</v>
+        <v>1673389</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1819402</v>
+        <v>1830803</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.251524145489081</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2419318885420901</v>
+        <v>0.2407106619041793</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2617141016158171</v>
+        <v>0.2633541248091704</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>909031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>859284</v>
+        <v>856796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>967220</v>
+        <v>964662</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2666448262216059</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2520525949915415</v>
+        <v>0.2513227309402829</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2837134832202831</v>
+        <v>0.2829629594099011</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>829</v>
@@ -4378,19 +4378,19 @@
         <v>901966</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>850223</v>
+        <v>848344</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>959990</v>
+        <v>953983</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2545969699242598</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2399915217716543</v>
+        <v>0.2394610175612049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2709753700923533</v>
+        <v>0.2692796767174975</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1667</v>
@@ -4399,19 +4399,19 @@
         <v>1810997</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1727516</v>
+        <v>1733964</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1880066</v>
+        <v>1893560</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2605051513984503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2484967553718367</v>
+        <v>0.2494242786496971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.270440498819623</v>
+        <v>0.2723815034896506</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>607063</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>560667</v>
+        <v>562567</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>652822</v>
+        <v>659330</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1780688971360464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1644597756649983</v>
+        <v>0.1650171467914308</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1914913440146926</v>
+        <v>0.1934004674676161</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>948</v>
@@ -4449,19 +4449,19 @@
         <v>1025841</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>971981</v>
+        <v>971590</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1083279</v>
+        <v>1083848</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2895628572814142</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2743599094623319</v>
+        <v>0.2742496372289278</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3057758072788157</v>
+        <v>0.3059364087746124</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1503</v>
@@ -4470,19 +4470,19 @@
         <v>1632903</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1561408</v>
+        <v>1566858</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1711518</v>
+        <v>1706207</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2348870266973379</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2246027162839088</v>
+        <v>0.2253866070187689</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2461955161723877</v>
+        <v>0.2454314287964195</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>418107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>386502</v>
+        <v>385994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>447331</v>
+        <v>452009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3706633078051515</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3426442386613576</v>
+        <v>0.3421942482659414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3965713663277932</v>
+        <v>0.4007181817710758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>352</v>
@@ -4835,19 +4835,19 @@
         <v>349715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>317080</v>
+        <v>317136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>381286</v>
+        <v>382885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2776479940807289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2517382167093738</v>
+        <v>0.2517829009507616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3027133083509462</v>
+        <v>0.3039826729020836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>750</v>
@@ -4856,19 +4856,19 @@
         <v>767822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>725969</v>
+        <v>724700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>816831</v>
+        <v>815247</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.321592901907005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3040634645303451</v>
+        <v>0.3035317370981762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3421196904644465</v>
+        <v>0.3414565599611871</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>226337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201452</v>
+        <v>200343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255267</v>
+        <v>253238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2006536313617992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1785928929354292</v>
+        <v>0.1776092310356124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.226301049893303</v>
+        <v>0.2245023219205024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -4906,19 +4906,19 @@
         <v>231603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>205551</v>
+        <v>204408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261941</v>
+        <v>261158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1838759108232279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1631925559870376</v>
+        <v>0.1622852444558178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2079618389829619</v>
+        <v>0.2073401876728641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>438</v>
@@ -4927,19 +4927,19 @@
         <v>457940</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>421101</v>
+        <v>417397</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>498362</v>
+        <v>497513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1918025129393797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1763730854578603</v>
+        <v>0.1748216552130193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2087330374760189</v>
+        <v>0.2083774992565296</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>266745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236321</v>
+        <v>239205</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>294850</v>
+        <v>298590</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2364764013080423</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2095052694616604</v>
+        <v>0.2120612996868229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2613924821373929</v>
+        <v>0.2647085548730168</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>269</v>
@@ -4977,19 +4977,19 @@
         <v>289250</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>259439</v>
+        <v>256911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>318091</v>
+        <v>320050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2296433543866831</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2059756473637928</v>
+        <v>0.203968430637621</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2525408033064085</v>
+        <v>0.2540962881739199</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>515</v>
@@ -4998,19 +4998,19 @@
         <v>555994</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>513273</v>
+        <v>512157</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>598020</v>
+        <v>598596</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2328716143914968</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2149781857238117</v>
+        <v>0.2145106806800637</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2504734935388109</v>
+        <v>0.2507146000121355</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>216809</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>193539</v>
+        <v>190043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>241280</v>
+        <v>242649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.192206659525007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1715778813368772</v>
+        <v>0.1684787271354017</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2139010192154983</v>
+        <v>0.2151150465092913</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -5048,19 +5048,19 @@
         <v>388994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>354823</v>
+        <v>356158</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>426623</v>
+        <v>426105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3088327407093602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2817036236783599</v>
+        <v>0.2827635480967622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3387080540513336</v>
+        <v>0.3382966500789926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>551</v>
@@ -5069,19 +5069,19 @@
         <v>605802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>568471</v>
+        <v>562984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>652782</v>
+        <v>648942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2537329707621186</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2380974550398319</v>
+        <v>0.2357990923860156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2734097406223766</v>
+        <v>0.2718015044486038</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>357651</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>327001</v>
+        <v>330438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>386081</v>
+        <v>385578</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3935314613259198</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3598063112529734</v>
+        <v>0.3635881045199924</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.424812971492479</v>
+        <v>0.4242598818380594</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>324</v>
@@ -5194,19 +5194,19 @@
         <v>324953</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>293443</v>
+        <v>295830</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>354226</v>
+        <v>353551</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3228622695696489</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2915553173589063</v>
+        <v>0.2939264666010841</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3519473519464777</v>
+        <v>0.3512761179959196</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>673</v>
@@ -5215,19 +5215,19 @@
         <v>682604</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>643028</v>
+        <v>643942</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>725921</v>
+        <v>729083</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3563953505696336</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3357320111281679</v>
+        <v>0.3362093897609933</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3790115667124363</v>
+        <v>0.3806628169769551</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>224759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201602</v>
+        <v>196141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251204</v>
+        <v>251411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2473072911691808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2218275049346322</v>
+        <v>0.2158184241543683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2764051065891654</v>
+        <v>0.2766327767862442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -5265,19 +5265,19 @@
         <v>226343</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199002</v>
+        <v>200153</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255320</v>
+        <v>257046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2248866083148897</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1977220536919116</v>
+        <v>0.1988651346999925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2536770492875994</v>
+        <v>0.2553923436920707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -5286,19 +5286,19 @@
         <v>451102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>410979</v>
+        <v>413235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>487067</v>
+        <v>488033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2355253966686733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2145765932057541</v>
+        <v>0.2157545565367472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2543031427194295</v>
+        <v>0.2548077180643198</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>183607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>162709</v>
+        <v>162105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210327</v>
+        <v>208466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2020267641806689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1790327242888722</v>
+        <v>0.1783672853286055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2314278061395708</v>
+        <v>0.2293791998352417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -5336,19 +5336,19 @@
         <v>205140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180717</v>
+        <v>180372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233091</v>
+        <v>231618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2038200734754574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1795548334340711</v>
+        <v>0.1792115234748283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2315918223156136</v>
+        <v>0.2301280941242715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>363</v>
@@ -5357,19 +5357,19 @@
         <v>388747</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>353686</v>
+        <v>351991</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>426371</v>
+        <v>425760</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2029691342706117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1846632753724556</v>
+        <v>0.1837785892576514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2226130088037107</v>
+        <v>0.2222940234638618</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>142808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121705</v>
+        <v>121149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>166394</v>
+        <v>165025</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1571344833242305</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1339145270804236</v>
+        <v>0.1333029772703044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.183086898611166</v>
+        <v>0.1815807396697461</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -5407,19 +5407,19 @@
         <v>250040</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221074</v>
+        <v>220785</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>278281</v>
+        <v>280015</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.248431048640004</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2196513727518637</v>
+        <v>0.2193647877803198</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2764904482969887</v>
+        <v>0.2782140525782257</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>366</v>
@@ -5428,19 +5428,19 @@
         <v>392847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>357433</v>
+        <v>354004</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>427937</v>
+        <v>429577</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2051101184910815</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1866197737804148</v>
+        <v>0.1848297315829399</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2234308691668186</v>
+        <v>0.2242871593170279</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>291099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265641</v>
+        <v>263293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321007</v>
+        <v>320032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3533783422981434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3224741156461919</v>
+        <v>0.3196236962270818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3896854567644571</v>
+        <v>0.3885019174870413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -5553,19 +5553,19 @@
         <v>223752</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197483</v>
+        <v>199976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248331</v>
+        <v>250719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2901874852614155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2561194678013787</v>
+        <v>0.2593524471814337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3220645520230258</v>
+        <v>0.3251614954619637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>494</v>
@@ -5574,19 +5574,19 @@
         <v>514850</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>480010</v>
+        <v>477880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>553763</v>
+        <v>554323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3228269814715063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3009808623974998</v>
+        <v>0.2996454562661968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.347226288395817</v>
+        <v>0.3475777559750233</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>216241</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>193010</v>
+        <v>186726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>241001</v>
+        <v>241079</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2625055804085662</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2343043478000559</v>
+        <v>0.226675678235179</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2925629322599469</v>
+        <v>0.292656737236326</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>179</v>
@@ -5624,19 +5624,19 @@
         <v>182548</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>159919</v>
+        <v>158084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>206706</v>
+        <v>208415</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2367493198735603</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2074020742792771</v>
+        <v>0.2050221387115905</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2680807256124939</v>
+        <v>0.2702976779351857</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>384</v>
@@ -5645,19 +5645,19 @@
         <v>398789</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>363750</v>
+        <v>364303</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>437743</v>
+        <v>434104</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2500530066336532</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2280824426154181</v>
+        <v>0.2284290569378145</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2744784142348055</v>
+        <v>0.2721966933235006</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>203019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179741</v>
+        <v>181998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>227119</v>
+        <v>230155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2464544989575541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2181963128449863</v>
+        <v>0.2209354523514644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2757106484802763</v>
+        <v>0.2793958485784167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -5695,19 +5695,19 @@
         <v>183409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159185</v>
+        <v>158504</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>209795</v>
+        <v>208524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2378666219958636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2064497242379277</v>
+        <v>0.205566635422529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2720868487071285</v>
+        <v>0.2704384525603352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>367</v>
@@ -5716,19 +5716,19 @@
         <v>386428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>353865</v>
+        <v>354590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425748</v>
+        <v>423653</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2423024532329824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.221884157528147</v>
+        <v>0.222339117272832</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2669572298923933</v>
+        <v>0.2656432174364241</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>113400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93975</v>
+        <v>94757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132437</v>
+        <v>133499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1376615783357362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.114080845315303</v>
+        <v>0.1150296845306368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1607720573604791</v>
+        <v>0.1620604516915035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -5766,19 +5766,19 @@
         <v>181350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>155871</v>
+        <v>158166</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207443</v>
+        <v>208720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2351965728691606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2021515042659142</v>
+        <v>0.2051276788568181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2690363454943711</v>
+        <v>0.2706930750784283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -5787,19 +5787,19 @@
         <v>294750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264076</v>
+        <v>265042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326296</v>
+        <v>329468</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1848175586618581</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1655835606896213</v>
+        <v>0.1661894416925466</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2045978337157122</v>
+        <v>0.206586406541193</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>142634</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122947</v>
+        <v>122643</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164344</v>
+        <v>164352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2814955635339479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2426416758772572</v>
+        <v>0.2420430350913188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3243407457810453</v>
+        <v>0.3243563200263377</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>143</v>
@@ -5912,19 +5912,19 @@
         <v>146665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124265</v>
+        <v>126278</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>167305</v>
+        <v>167799</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2995000508677041</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2537581073724051</v>
+        <v>0.2578695468429331</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3416485163157964</v>
+        <v>0.3426584840226144</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>274</v>
@@ -5933,19 +5933,19 @@
         <v>289298</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>260437</v>
+        <v>260287</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>316416</v>
+        <v>318433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2903441856310801</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2613789869888637</v>
+        <v>0.2612281235787279</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3175595788015309</v>
+        <v>0.3195839257674103</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>154719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134525</v>
+        <v>133183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177424</v>
+        <v>175850</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3053464958237508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2654925809540648</v>
+        <v>0.2628431862073327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3501554740980168</v>
+        <v>0.3470485346923013</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -5983,19 +5983,19 @@
         <v>121799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101974</v>
+        <v>101145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141451</v>
+        <v>139994</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2487233821827467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2082395227446682</v>
+        <v>0.2065462658153472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.288853941885939</v>
+        <v>0.2858777208359833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>260</v>
@@ -6004,19 +6004,19 @@
         <v>276518</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248225</v>
+        <v>248615</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>305666</v>
+        <v>304938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2775180703160255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2491224672753407</v>
+        <v>0.2495135372288313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3067711229179213</v>
+        <v>0.3060401369823104</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>123874</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103226</v>
+        <v>103484</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>142892</v>
+        <v>145141</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2444706479604613</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2037212497889191</v>
+        <v>0.2042306617742611</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2820043232452412</v>
+        <v>0.2864428236642431</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>115</v>
@@ -6054,19 +6054,19 @@
         <v>122823</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>103394</v>
+        <v>105766</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>142544</v>
+        <v>143461</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2508132067284211</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2111386046892774</v>
+        <v>0.2159816670958699</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2910851349990378</v>
+        <v>0.2929571585355497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>230</v>
@@ -6075,19 +6075,19 @@
         <v>246696</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>219058</v>
+        <v>221675</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>277257</v>
+        <v>277167</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2475878100671159</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2198500584922795</v>
+        <v>0.222476065075762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.278259243869717</v>
+        <v>0.2781694633521976</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>85474</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68367</v>
+        <v>69901</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105670</v>
+        <v>105319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1686872926818401</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1349254637793146</v>
+        <v>0.1379538590239246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2085448028166403</v>
+        <v>0.2078517462927547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -6125,19 +6125,19 @@
         <v>98411</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80184</v>
+        <v>81890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118087</v>
+        <v>118565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2009633602211281</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1637414883936159</v>
+        <v>0.1672246648313171</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2411422161014853</v>
+        <v>0.2421185947496994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>162</v>
@@ -6146,19 +6146,19 @@
         <v>183885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>157209</v>
+        <v>157896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>211770</v>
+        <v>210704</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1845499339857784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1577770943381899</v>
+        <v>0.1584670193340443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2125351066964876</v>
+        <v>0.2114653096455354</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>1209491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1152957</v>
+        <v>1148598</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1267225</v>
+        <v>1262931</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3591891040446121</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3423999131707111</v>
+        <v>0.3411052847250503</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3763346642806752</v>
+        <v>0.3750594940204551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1041</v>
@@ -6271,19 +6271,19 @@
         <v>1045083</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>995694</v>
+        <v>987450</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1102767</v>
+        <v>1094729</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2963269035357696</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.282322894447087</v>
+        <v>0.2799852603624595</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3126828394489541</v>
+        <v>0.3104035767401096</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2191</v>
@@ -6292,19 +6292,19 @@
         <v>2254575</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2173287</v>
+        <v>2183741</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2329813</v>
+        <v>2334675</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3270307737582748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3152398873967561</v>
+        <v>0.3167562613752209</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3379442079017338</v>
+        <v>0.3386495471501993</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>822056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>771820</v>
+        <v>767218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>874310</v>
+        <v>876394</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2441305607676344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2292114297016087</v>
+        <v>0.2278448976569472</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2596484583374378</v>
+        <v>0.2602676057782351</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>737</v>
@@ -6342,19 +6342,19 @@
         <v>762292</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>712819</v>
+        <v>716024</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>811193</v>
+        <v>810202</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2161433073382253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2021154355167854</v>
+        <v>0.203024066298453</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2300086196109024</v>
+        <v>0.2297277810863028</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1512</v>
@@ -6363,19 +6363,19 @@
         <v>1584349</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1511828</v>
+        <v>1509223</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1658373</v>
+        <v>1656158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.229813159653689</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2192938061236414</v>
+        <v>0.2189160187183688</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2405505351911338</v>
+        <v>0.2402292051500246</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>777244</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>725546</v>
+        <v>722176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>825410</v>
+        <v>827816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2308224526408129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2154692928072401</v>
+        <v>0.2144686082413518</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2451265093602115</v>
+        <v>0.2458410269117597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>744</v>
@@ -6413,19 +6413,19 @@
         <v>800621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>752283</v>
+        <v>753072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>856462</v>
+        <v>856231</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2270112041018943</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2133052081923228</v>
+        <v>0.2135288773291968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.242844487472848</v>
+        <v>0.242779128023851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1475</v>
@@ -6434,19 +6434,19 @@
         <v>1577866</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1506881</v>
+        <v>1513317</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1649802</v>
+        <v>1646509</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2288727374172642</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2185762498916622</v>
+        <v>0.2195097700420457</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2393072411487509</v>
+        <v>0.2388295804795327</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>558490</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>516594</v>
+        <v>514881</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>600003</v>
+        <v>602315</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1658578825469406</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1534156971049608</v>
+        <v>0.1529070256988642</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1781860180126792</v>
+        <v>0.1788728595907835</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>800</v>
@@ -6484,19 +6484,19 @@
         <v>918795</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>863055</v>
+        <v>867704</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>977593</v>
+        <v>969916</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2605185850241107</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2447139374066257</v>
+        <v>0.246031975649715</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2771903430873561</v>
+        <v>0.2750135675589268</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1349</v>
@@ -6505,19 +6505,19 @@
         <v>1477285</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1402410</v>
+        <v>1412830</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1555312</v>
+        <v>1548314</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2142833291707721</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2034225017637825</v>
+        <v>0.2049339458716581</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2256013310544299</v>
+        <v>0.2245861659418123</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>106014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86732</v>
+        <v>84558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132949</v>
+        <v>130777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2143181340858389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.17533732759867</v>
+        <v>0.1709409986854618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2687689811963845</v>
+        <v>0.264378617402813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -6870,19 +6870,19 @@
         <v>120090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102872</v>
+        <v>101845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142535</v>
+        <v>141899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.194005388682702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1661890979621367</v>
+        <v>0.1645299637810742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2302635497513592</v>
+        <v>0.2292374446790887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -6891,19 +6891,19 @@
         <v>226105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196508</v>
+        <v>198528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>257717</v>
+        <v>258737</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2030277442558515</v>
+        <v>0.2030277442558516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1764520973517443</v>
+        <v>0.1782655998820763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2314132751322867</v>
+        <v>0.2323292593811297</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>130814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106658</v>
+        <v>109072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>155571</v>
+        <v>152789</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2644524823252066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2156193179054773</v>
+        <v>0.2204999228015279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3145017280665539</v>
+        <v>0.3088775786970554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -6941,19 +6941,19 @@
         <v>131248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114826</v>
+        <v>113455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152367</v>
+        <v>152664</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2120298233436424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1855001996496688</v>
+        <v>0.1832856540810373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2461473168991191</v>
+        <v>0.2466282185085858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -6962,19 +6962,19 @@
         <v>262061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232051</v>
+        <v>234413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292813</v>
+        <v>296925</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2353145079116177</v>
+        <v>0.2353145079116178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2083675724945356</v>
+        <v>0.2104879556651666</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2629272943529322</v>
+        <v>0.2666195177703277</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>88096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71117</v>
+        <v>71528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107201</v>
+        <v>107331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1780939945069252</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1437688145740074</v>
+        <v>0.1446012720447023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.216716638263748</v>
+        <v>0.2169799253050954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -7012,19 +7012,19 @@
         <v>109311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94711</v>
+        <v>90881</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128478</v>
+        <v>125555</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1765906154597591</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1530044602461407</v>
+        <v>0.1468176660296215</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2075546516062831</v>
+        <v>0.2028327154534797</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>238</v>
@@ -7033,19 +7033,19 @@
         <v>197406</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>172253</v>
+        <v>173503</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>222656</v>
+        <v>225820</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1772583745467539</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.154672550022311</v>
+        <v>0.1557950316907883</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1999308769293148</v>
+        <v>0.2027724166630791</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>169735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146754</v>
+        <v>148211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192250</v>
+        <v>192799</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3431353890820292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.296677459505957</v>
+        <v>0.2996233791417949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3886508231181606</v>
+        <v>0.389761980499686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>413</v>
@@ -7083,19 +7083,19 @@
         <v>258357</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235567</v>
+        <v>237653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280729</v>
+        <v>281657</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4173741725138965</v>
+        <v>0.4173741725138964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3805574198625298</v>
+        <v>0.38392660509077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4535154979109694</v>
+        <v>0.45501528587651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>597</v>
@@ -7104,19 +7104,19 @@
         <v>428092</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>398314</v>
+        <v>398826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>459239</v>
+        <v>457840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3843993732857768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3576608638043097</v>
+        <v>0.3581206690098306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4123678929076269</v>
+        <v>0.4111112810026278</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>243487</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>209897</v>
+        <v>213253</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>280032</v>
+        <v>277309</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2549026317904534</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2197379674520843</v>
+        <v>0.2232513020574534</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2931611747251002</v>
+        <v>0.2903109451763212</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>235</v>
@@ -7229,19 +7229,19 @@
         <v>202903</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176293</v>
+        <v>177954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>227536</v>
+        <v>228894</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1826593535086966</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1587039546935032</v>
+        <v>0.1601992652602662</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2048339525765767</v>
+        <v>0.2060568307886474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>409</v>
@@ -7250,19 +7250,19 @@
         <v>446390</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>404046</v>
+        <v>405526</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>491294</v>
+        <v>494102</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2160602816169997</v>
+        <v>0.2160602816169998</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1955650993410463</v>
+        <v>0.1962816804353729</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2377948779009098</v>
+        <v>0.2391538284406351</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>302568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272257</v>
+        <v>272701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>335759</v>
+        <v>335671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3167540678764774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2850221514557258</v>
+        <v>0.2854871147733328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3515016556155313</v>
+        <v>0.3514087265920481</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>377</v>
@@ -7300,19 +7300,19 @@
         <v>299752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>274716</v>
+        <v>271842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>327360</v>
+        <v>327498</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2698451364227689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2473068478969171</v>
+        <v>0.2447198524257246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2946989946097149</v>
+        <v>0.2948229144473551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>640</v>
@@ -7321,19 +7321,19 @@
         <v>602320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563978</v>
+        <v>561199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>646861</v>
+        <v>642323</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.291532992848829</v>
+        <v>0.2915329928488289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2729748859761724</v>
+        <v>0.2716300258727018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3130915735224687</v>
+        <v>0.3108952292420903</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>182329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158386</v>
+        <v>159214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210209</v>
+        <v>209558</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1908772947728707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1658125194705305</v>
+        <v>0.1666784801477098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2200653178969986</v>
+        <v>0.2193831640997407</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>346</v>
@@ -7371,19 +7371,19 @@
         <v>233634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210555</v>
+        <v>211088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256801</v>
+        <v>257139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2103236369321506</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.189547899564739</v>
+        <v>0.1900272464265267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2311792107339098</v>
+        <v>0.231484065500308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>544</v>
@@ -7392,19 +7392,19 @@
         <v>415962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>382998</v>
+        <v>382046</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>449391</v>
+        <v>454563</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2013328229508366</v>
+        <v>0.2013328229508367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1853774574505229</v>
+        <v>0.1849168739516251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.217513114612672</v>
+        <v>0.22001621401715</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>226831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200613</v>
+        <v>202355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>253501</v>
+        <v>252847</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2374660055601985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2100184135483656</v>
+        <v>0.2118429265088326</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2653863865701299</v>
+        <v>0.2647018769327667</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>641</v>
@@ -7442,19 +7442,19 @@
         <v>374541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>346963</v>
+        <v>345212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>401241</v>
+        <v>398713</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3371718731363839</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.312345712019498</v>
+        <v>0.3107693612004649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3612087238374869</v>
+        <v>0.3589329225329703</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>911</v>
@@ -7463,19 +7463,19 @@
         <v>601371</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>564959</v>
+        <v>561980</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>639355</v>
+        <v>639292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2910739025833347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2734496208517937</v>
+        <v>0.2720078587995401</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3094589494608256</v>
+        <v>0.3094281790606825</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>232709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199683</v>
+        <v>202041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264703</v>
+        <v>264070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2227001349723413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1910946099980953</v>
+        <v>0.1933512514137193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2533176609282804</v>
+        <v>0.2527122977522592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -7588,19 +7588,19 @@
         <v>242637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218929</v>
+        <v>218413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269912</v>
+        <v>270904</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2320748395813349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2093981044078312</v>
+        <v>0.2089049381136664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2581619344098804</v>
+        <v>0.2591112260742388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>472</v>
@@ -7609,19 +7609,19 @@
         <v>475347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>434008</v>
+        <v>435650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>513026</v>
+        <v>518138</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2273887640998183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2076139187533755</v>
+        <v>0.2083993821706654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2454133202977963</v>
+        <v>0.2478586753673053</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>370056</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>335246</v>
+        <v>339207</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>403981</v>
+        <v>403031</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3541396882153894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3208261203529433</v>
+        <v>0.3246167958451367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3866046021957542</v>
+        <v>0.3856956471372165</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>364</v>
@@ -7659,19 +7659,19 @@
         <v>282246</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>254688</v>
+        <v>255047</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>307252</v>
+        <v>307162</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2699590713774662</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2436006915252208</v>
+        <v>0.2439444801525181</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2938767796697772</v>
+        <v>0.2937902034398574</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>711</v>
@@ -7680,19 +7680,19 @@
         <v>652302</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>611531</v>
+        <v>611554</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>694915</v>
+        <v>697935</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3120379145022609</v>
+        <v>0.312037914502261</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2925345170942414</v>
+        <v>0.2925455367354889</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3324222482821118</v>
+        <v>0.3338669886861235</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>262287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>233533</v>
+        <v>232607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>294721</v>
+        <v>292637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2510057635895542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2234881459706395</v>
+        <v>0.2226018542731807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2820447105125812</v>
+        <v>0.2800504969118939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>372</v>
@@ -7730,19 +7730,19 @@
         <v>233449</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>212400</v>
+        <v>211017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>258992</v>
+        <v>256108</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2232864369679912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2031538995496263</v>
+        <v>0.2018310092678516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2477169567511772</v>
+        <v>0.2449593427419607</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>650</v>
@@ -7751,19 +7751,19 @@
         <v>495736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>454521</v>
+        <v>456834</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>529808</v>
+        <v>533392</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2371423249413404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2174263313104758</v>
+        <v>0.2185328710305031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2534410846429688</v>
+        <v>0.2551553726320046</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>179892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158328</v>
+        <v>157475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204194</v>
+        <v>205623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1721544132227151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1515177205894477</v>
+        <v>0.150701535046383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.195410763867172</v>
+        <v>0.1967784421578047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>490</v>
@@ -7801,19 +7801,19 @@
         <v>287181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264398</v>
+        <v>262942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>310890</v>
+        <v>310273</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2746796520732077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.252888178293724</v>
+        <v>0.2514949799309175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2973560114390463</v>
+        <v>0.2967660325927281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>706</v>
@@ -7822,19 +7822,19 @@
         <v>467073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>434069</v>
+        <v>433379</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>503388</v>
+        <v>503449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2234309964565804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2076429180025981</v>
+        <v>0.207312786487802</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2408025435743285</v>
+        <v>0.2408317217544707</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>276517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>246290</v>
+        <v>245239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>310154</v>
+        <v>311918</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2851011443754827</v>
+        <v>0.2851011443754826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2539358172920003</v>
+        <v>0.2528520955219822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3197824750728821</v>
+        <v>0.3216019191415362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>326</v>
@@ -7947,19 +7947,19 @@
         <v>250662</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225991</v>
+        <v>223703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>276818</v>
+        <v>277571</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2774906471648623</v>
+        <v>0.2774906471648624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.250178693439465</v>
+        <v>0.2476462895180747</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3064457569020803</v>
+        <v>0.3072793565048899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>560</v>
@@ -7968,19 +7968,19 @@
         <v>527179</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>485149</v>
+        <v>486772</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>569351</v>
+        <v>568690</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2814311320491109</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2589936140477717</v>
+        <v>0.2598603772976344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3039445477632881</v>
+        <v>0.3035917201661666</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>219227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192476</v>
+        <v>191547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248464</v>
+        <v>249071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2260331844961098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1984509188563636</v>
+        <v>0.1974932287724498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2561774349784525</v>
+        <v>0.2568028986229667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -8018,19 +8018,19 @@
         <v>193164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>168630</v>
+        <v>169255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217706</v>
+        <v>217518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2138387651921358</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1866790885709774</v>
+        <v>0.1873710165309168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2410068046159697</v>
+        <v>0.2407996946652376</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>463</v>
@@ -8039,19 +8039,19 @@
         <v>412392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373756</v>
+        <v>376808</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>448756</v>
+        <v>450854</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2201526660595381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1995275649800914</v>
+        <v>0.2011564290488269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2395658129985</v>
+        <v>0.2406856612572571</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>313857</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>282043</v>
+        <v>283281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>348686</v>
+        <v>347348</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3236008759673004</v>
+        <v>0.3236008759673003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2907991111048392</v>
+        <v>0.2920753508181728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3595107497165674</v>
+        <v>0.3581313805044473</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>404</v>
@@ -8089,19 +8089,19 @@
         <v>264287</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>240967</v>
+        <v>238720</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>288665</v>
+        <v>285805</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2925734544020744</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2667575377042224</v>
+        <v>0.2642699090479756</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.319560596707865</v>
+        <v>0.3163954877803561</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>713</v>
@@ -8110,19 +8110,19 @@
         <v>578144</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>542793</v>
+        <v>537391</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>621954</v>
+        <v>617831</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3086385132663447</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2897668329872087</v>
+        <v>0.286882676213458</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3320263043348112</v>
+        <v>0.3298250186421888</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>160289</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136791</v>
+        <v>137674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>182734</v>
+        <v>182480</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1652647951611073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.141037136583491</v>
+        <v>0.1419477738633862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1884068056456751</v>
+        <v>0.1881453453623991</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>332</v>
@@ -8160,19 +8160,19 @@
         <v>195204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175700</v>
+        <v>177315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214823</v>
+        <v>216732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2160971332409274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1945050679160414</v>
+        <v>0.196293122432258</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2378160984010426</v>
+        <v>0.2399293577836412</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>518</v>
@@ -8181,19 +8181,19 @@
         <v>355493</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>327068</v>
+        <v>325469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>385491</v>
+        <v>389365</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1897776886250064</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1746033325923631</v>
+        <v>0.1737493675898003</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2057919171431585</v>
+        <v>0.2078600114267642</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>858727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>796816</v>
+        <v>800125</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>916119</v>
+        <v>922381</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2478497779439021</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2299808402748544</v>
+        <v>0.2309358343180361</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2644144360573565</v>
+        <v>0.2662220438679452</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>975</v>
@@ -8306,19 +8306,19 @@
         <v>816294</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>772577</v>
+        <v>767983</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>868873</v>
+        <v>866759</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2218992752946792</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2100155483798647</v>
+        <v>0.208766602393573</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2361924274587551</v>
+        <v>0.2356178192675905</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1646</v>
@@ -8327,19 +8327,19 @@
         <v>1675020</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1599803</v>
+        <v>1601971</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1753925</v>
+        <v>1753046</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2344858892106092</v>
+        <v>0.2344858892106093</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2239562956224261</v>
+        <v>0.2242597057936227</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2455317225902074</v>
+        <v>0.2454087201278026</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1022665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>964688</v>
+        <v>967692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1087548</v>
+        <v>1084305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2951664427561093</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2784328188072779</v>
+        <v>0.2792997132775848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3138933481067532</v>
+        <v>0.312957230367596</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1150</v>
@@ -8377,19 +8377,19 @@
         <v>906410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>860001</v>
+        <v>860286</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>954928</v>
+        <v>961084</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2463963129655117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2337805010031057</v>
+        <v>0.2338581624225135</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2595854205299705</v>
+        <v>0.2612587553144729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2078</v>
@@ -8398,19 +8398,19 @@
         <v>1929075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1854684</v>
+        <v>1846535</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2012389</v>
+        <v>2000741</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2700509913585111</v>
+        <v>0.2700509913585112</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2596370314396945</v>
+        <v>0.258496181147841</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2817140512685596</v>
+        <v>0.2800834948878725</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>846569</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>791489</v>
+        <v>796872</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>903042</v>
+        <v>900423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2443406393996853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2284433822004942</v>
+        <v>0.2299969910780055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2606401743354884</v>
+        <v>0.2598843302590459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1276</v>
@@ -8448,19 +8448,19 @@
         <v>840680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>798663</v>
+        <v>798163</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>886436</v>
+        <v>884193</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2285284765674372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2171065108030493</v>
+        <v>0.2169707278196968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.240966764431098</v>
+        <v>0.2403568702185113</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2145</v>
@@ -8469,19 +8469,19 @@
         <v>1687249</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1621246</v>
+        <v>1620176</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1766094</v>
+        <v>1761674</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2361977533993942</v>
+        <v>0.2361977533993943</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2269580017912331</v>
+        <v>0.2268082648283777</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2472353723196277</v>
+        <v>0.2466164986561242</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>736746</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>687455</v>
+        <v>686453</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>785865</v>
+        <v>786246</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2126431399003033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1984165316893732</v>
+        <v>0.1981273300848482</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2268200515235737</v>
+        <v>0.2269299573205331</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1876</v>
@@ -8519,19 +8519,19 @@
         <v>1115283</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1067307</v>
+        <v>1068140</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1159787</v>
+        <v>1162976</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3031759351723719</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2901341190967054</v>
+        <v>0.2903604969088484</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3152737370803428</v>
+        <v>0.3161405149657976</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2732</v>
@@ -8540,19 +8540,19 @@
         <v>1852029</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1781017</v>
+        <v>1787612</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1918767</v>
+        <v>1920210</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2592653660314854</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2493243194456389</v>
+        <v>0.250247642561696</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2686079804116841</v>
+        <v>0.2688099424400682</v>
       </c>
     </row>
     <row r="28">
